--- a/UvA/MediumDataset/Results.xlsx
+++ b/UvA/MediumDataset/Results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,114 @@
         <v>135.5467760562897</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>['', '']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>256</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8855193460755617</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8978501859486989</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8989757176939278</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8996158862136981</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30.85510492324829</v>
+      </c>
+      <c r="P4" t="n">
+        <v>135.7978386878967</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>['', '']</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MetaDiff</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>32</v>
+      </c>
+      <c r="I5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>256</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9901828225716524</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9850710649650012</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9852355359843745</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.99139286816299</v>
+      </c>
+      <c r="O5" t="n">
+        <v>100.4414038658142</v>
+      </c>
+      <c r="P5" t="n">
+        <v>171.3792576789856</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
